--- a/results.xlsx
+++ b/results.xlsx
@@ -646,12 +646,12 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
+          <t>FloresBitextMining_fra_Latn-eng_Latn</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
           <t>FloresBitextMining_eng_Latn-fra_Latn</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>FloresBitextMining_fra_Latn-eng_Latn</t>
         </is>
       </c>
     </row>
@@ -741,10 +741,10 @@
         <v>0.6631613175502583</v>
       </c>
       <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.9973253092611166</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -911,10 +911,10 @@
         <v>0.299374159143314</v>
       </c>
       <c r="Z6" t="n">
+        <v>0.9694082246740221</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.9762621196924105</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.9694082246740221</v>
       </c>
     </row>
     <row r="7">
@@ -996,10 +996,10 @@
         <v>0.2995597273787902</v>
       </c>
       <c r="Z7" t="n">
+        <v>0.9694082246740221</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.9762621196924105</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.9694082246740221</v>
       </c>
     </row>
     <row r="8">
@@ -1081,10 +1081,10 @@
         <v>0.2996061329422579</v>
       </c>
       <c r="Z8" t="n">
+        <v>0.9694082246740221</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.9762621196924105</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.9694082246740221</v>
       </c>
     </row>
     <row r="9">
@@ -1166,10 +1166,10 @@
         <v>0.1131336094934851</v>
       </c>
       <c r="Z9" t="n">
+        <v>0.9204446673353393</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.9066087150339909</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.9204446673353393</v>
       </c>
     </row>
     <row r="10">
@@ -1251,10 +1251,10 @@
         <v>0.1129692265139254</v>
       </c>
       <c r="Z10" t="n">
+        <v>0.9192744901370778</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.9066087150339909</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.9192744901370778</v>
       </c>
     </row>
     <row r="11">
@@ -1336,10 +1336,10 @@
         <v>0.1136640517513887</v>
       </c>
       <c r="Z11" t="n">
+        <v>0.9204446673353393</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.9066087150339909</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.9204446673353393</v>
       </c>
     </row>
     <row r="12">
@@ -1421,10 +1421,10 @@
         <v>0.05946715324206229</v>
       </c>
       <c r="Z12" t="n">
+        <v>0.6332293277880038</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.6499806439094893</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.6332293277880038</v>
       </c>
     </row>
     <row r="13">
@@ -1506,10 +1506,10 @@
         <v>0.7371911997949699</v>
       </c>
       <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0.9973253092611166</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1591,10 +1591,10 @@
         <v>0.2996061329422579</v>
       </c>
       <c r="Z14" t="n">
+        <v>0.9694082246740221</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0.9762621196924105</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.9694082246740221</v>
       </c>
     </row>
     <row r="15">
@@ -1676,10 +1676,10 @@
         <v>0.3559984760058366</v>
       </c>
       <c r="Z15" t="n">
+        <v>0.9477432296890672</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0.9799398194583752</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.9477432296890672</v>
       </c>
     </row>
     <row r="16">
@@ -1761,10 +1761,10 @@
         <v>0.04331694082788507</v>
       </c>
       <c r="Z16" t="n">
+        <v>0.2602264772347189</v>
+      </c>
+      <c r="AA16" t="n">
         <v>0.2515262419615453</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.2602264772347189</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0.05998688454697069</v>
       </c>
       <c r="Z17" t="n">
+        <v>0.4013712370627894</v>
+      </c>
+      <c r="AA17" t="n">
         <v>0.3161171999727407</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.4013712370627894</v>
       </c>
     </row>
     <row r="18">
@@ -1931,10 +1931,10 @@
         <v>0.3606737729832072</v>
       </c>
       <c r="Z18" t="n">
+        <v>0.8975927783350049</v>
+      </c>
+      <c r="AA18" t="n">
         <v>0.9007021063189569</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.8975927783350049</v>
       </c>
     </row>
     <row r="19">
@@ -2016,10 +2016,10 @@
         <v>0.6783115045819693</v>
       </c>
       <c r="Z19" t="n">
+        <v>0.9946506185222335</v>
+      </c>
+      <c r="AA19" t="n">
         <v>0.995987963891675</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.9946506185222335</v>
       </c>
     </row>
     <row r="20">
@@ -2101,10 +2101,10 @@
         <v>0.009654559268801278</v>
       </c>
       <c r="Z20" t="n">
+        <v>0.04620745118237596</v>
+      </c>
+      <c r="AA20" t="n">
         <v>0.06596709425391827</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.04620745118237596</v>
       </c>
     </row>
     <row r="21">
@@ -2186,10 +2186,10 @@
         <v>0.01979442433142667</v>
       </c>
       <c r="Z21" t="n">
+        <v>0.3091099858805599</v>
+      </c>
+      <c r="AA21" t="n">
         <v>0.3585084545943069</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.3091099858805599</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         <v>0.02985745352493187</v>
       </c>
       <c r="Z22" t="n">
+        <v>0.2537073113561774</v>
+      </c>
+      <c r="AA22" t="n">
         <v>0.08098894058162567</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.2537073113561774</v>
       </c>
     </row>
     <row r="23">
@@ -2356,10 +2356,10 @@
         <v>0.009125460760132157</v>
       </c>
       <c r="Z23" t="n">
+        <v>0.1491870638833542</v>
+      </c>
+      <c r="AA23" t="n">
         <v>0.1739429979680737</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.1491870638833542</v>
       </c>
     </row>
     <row r="24">
@@ -2441,10 +2441,10 @@
         <v>0.007426228877037484</v>
       </c>
       <c r="Z24" t="n">
+        <v>0.4810461602296786</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.6295424735745699</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.4810461602296786</v>
       </c>
     </row>
     <row r="25">
@@ -2526,10 +2526,10 @@
         <v>0.8469805121423075</v>
       </c>
       <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
         <v>0.9986626546305583</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2781,10 +2781,10 @@
         <v>0.02960398393820522</v>
       </c>
       <c r="Z28" t="n">
+        <v>0.7507920742612434</v>
+      </c>
+      <c r="AA28" t="n">
         <v>0.7753324186122581</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.7507920742612434</v>
       </c>
     </row>
     <row r="29">
@@ -2866,10 +2866,10 @@
         <v>0.08123300931367383</v>
       </c>
       <c r="Z29" t="n">
+        <v>0.4982878074063394</v>
+      </c>
+      <c r="AA29" t="n">
         <v>0.3735697737011764</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.4982878074063394</v>
       </c>
     </row>
     <row r="30">
@@ -3121,10 +3121,10 @@
         <v>0.096967565885423</v>
       </c>
       <c r="Z32" t="n">
+        <v>0.7091264534343772</v>
+      </c>
+      <c r="AA32" t="n">
         <v>0.6191113021604495</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0.7091264534343772</v>
       </c>
     </row>
     <row r="33">
@@ -3206,10 +3206,10 @@
         <v>0.03498878152491112</v>
       </c>
       <c r="Z33" t="n">
+        <v>0.6231354410624419</v>
+      </c>
+      <c r="AA33" t="n">
         <v>0.564793587110538</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.6231354410624419</v>
       </c>
     </row>
     <row r="34">
@@ -3376,10 +3376,10 @@
         <v>0.08784505319023178</v>
       </c>
       <c r="Z35" t="n">
+        <v>0.5537365949388782</v>
+      </c>
+      <c r="AA35" t="n">
         <v>0.5046345385362436</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0.5537365949388782</v>
       </c>
     </row>
     <row r="36">
@@ -3461,10 +3461,10 @@
         <v>0.7772438859983376</v>
       </c>
       <c r="Z36" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="AA36" t="n">
         <v>0.995987963891675</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0.9986626546305583</v>
       </c>
     </row>
     <row r="37">
@@ -3546,10 +3546,10 @@
         <v>0.8067461852300057</v>
       </c>
       <c r="Z37" t="n">
-        <v>1</v>
+        <v>0.9986626546305584</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.9986626546305584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3631,10 +3631,10 @@
         <v>0.551313531869022</v>
       </c>
       <c r="Z38" t="n">
+        <v>0.9735874289535272</v>
+      </c>
+      <c r="AA38" t="n">
         <v>0.9615513206285523</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.9735874289535272</v>
       </c>
     </row>
     <row r="39">
@@ -3716,10 +3716,10 @@
         <v>0.7109667114459385</v>
       </c>
       <c r="Z39" t="n">
+        <v>0.9919759277833501</v>
+      </c>
+      <c r="AA39" t="n">
         <v>0.9866265463055833</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0.9919759277833501</v>
       </c>
     </row>
     <row r="40">
@@ -3886,10 +3886,10 @@
         <v>0.8324518195666728</v>
       </c>
       <c r="Z41" t="n">
+        <v>0.9973253092611166</v>
+      </c>
+      <c r="AA41" t="n">
         <v>0.9986626546305583</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.9973253092611166</v>
       </c>
     </row>
     <row r="42">
@@ -3971,10 +3971,10 @@
         <v>0.7780898243854504</v>
       </c>
       <c r="Z42" t="n">
+        <v>0.9879638916750251</v>
+      </c>
+      <c r="AA42" t="n">
         <v>0.9946506185222334</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0.9879638916750251</v>
       </c>
     </row>
     <row r="43">
@@ -4054,10 +4054,10 @@
         <v>0.860436629641775</v>
       </c>
       <c r="Z43" t="n">
+        <v>0.9933132731527916</v>
+      </c>
+      <c r="AA43" t="n">
         <v>0.9946506185222334</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.9933132731527916</v>
       </c>
     </row>
     <row r="44">
@@ -4139,10 +4139,10 @@
         <v>0.3189440828794315</v>
       </c>
       <c r="Z44" t="n">
+        <v>0.9919759277833501</v>
+      </c>
+      <c r="AA44" t="n">
         <v>0.9799398194583752</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0.9919759277833501</v>
       </c>
     </row>
     <row r="45">
@@ -4224,10 +4224,10 @@
         <v>0.6013319288411012</v>
       </c>
       <c r="Z45" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="AA45" t="n">
         <v>0.9946506185222334</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0.9986626546305583</v>
       </c>
     </row>
     <row r="46">
@@ -4479,10 +4479,10 @@
         <v>0.2117178555612327</v>
       </c>
       <c r="Z48" t="n">
+        <v>0.7017890974510833</v>
+      </c>
+      <c r="AA48" t="n">
         <v>0.5328738628505576</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0.7017890974510833</v>
       </c>
     </row>
     <row r="49">
@@ -4564,10 +4564,10 @@
         <v>0.1324934909347301</v>
       </c>
       <c r="Z49" t="n">
+        <v>0.6492966311974625</v>
+      </c>
+      <c r="AA49" t="n">
         <v>0.2594625928964929</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0.6492966311974625</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -646,12 +646,12 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
+          <t>FloresBitextMining_eng_Latn-fra_Latn</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
           <t>FloresBitextMining_fra_Latn-eng_Latn</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>FloresBitextMining_eng_Latn-fra_Latn</t>
         </is>
       </c>
     </row>
@@ -741,10 +741,10 @@
         <v>0.6631613175502583</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9973253092611166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -911,10 +911,10 @@
         <v>0.299374159143314</v>
       </c>
       <c r="Z6" t="n">
+        <v>0.9762621196924105</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.9694082246740221</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.9762621196924105</v>
       </c>
     </row>
     <row r="7">
@@ -996,10 +996,10 @@
         <v>0.2995597273787902</v>
       </c>
       <c r="Z7" t="n">
+        <v>0.9762621196924105</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.9694082246740221</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.9762621196924105</v>
       </c>
     </row>
     <row r="8">
@@ -1081,10 +1081,10 @@
         <v>0.2996061329422579</v>
       </c>
       <c r="Z8" t="n">
+        <v>0.9762621196924105</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.9694082246740221</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.9762621196924105</v>
       </c>
     </row>
     <row r="9">
@@ -1166,10 +1166,10 @@
         <v>0.1131336094934851</v>
       </c>
       <c r="Z9" t="n">
+        <v>0.9066087150339909</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.9204446673353393</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.9066087150339909</v>
       </c>
     </row>
     <row r="10">
@@ -1251,10 +1251,10 @@
         <v>0.1129692265139254</v>
       </c>
       <c r="Z10" t="n">
+        <v>0.9066087150339909</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0.9192744901370778</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.9066087150339909</v>
       </c>
     </row>
     <row r="11">
@@ -1336,10 +1336,10 @@
         <v>0.1136640517513887</v>
       </c>
       <c r="Z11" t="n">
+        <v>0.9066087150339909</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.9204446673353393</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.9066087150339909</v>
       </c>
     </row>
     <row r="12">
@@ -1421,10 +1421,10 @@
         <v>0.05946715324206229</v>
       </c>
       <c r="Z12" t="n">
+        <v>0.6499806439094893</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0.6332293277880038</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.6499806439094893</v>
       </c>
     </row>
     <row r="13">
@@ -1506,10 +1506,10 @@
         <v>0.7371911997949699</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>0.9973253092611166</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.9973253092611166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1591,10 +1591,10 @@
         <v>0.2996061329422579</v>
       </c>
       <c r="Z14" t="n">
+        <v>0.9762621196924105</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0.9694082246740221</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.9762621196924105</v>
       </c>
     </row>
     <row r="15">
@@ -1676,10 +1676,10 @@
         <v>0.3559984760058366</v>
       </c>
       <c r="Z15" t="n">
+        <v>0.9799398194583752</v>
+      </c>
+      <c r="AA15" t="n">
         <v>0.9477432296890672</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.9799398194583752</v>
       </c>
     </row>
     <row r="16">
@@ -1761,10 +1761,10 @@
         <v>0.04331694082788507</v>
       </c>
       <c r="Z16" t="n">
+        <v>0.2515262419615453</v>
+      </c>
+      <c r="AA16" t="n">
         <v>0.2602264772347189</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.2515262419615453</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0.05998688454697069</v>
       </c>
       <c r="Z17" t="n">
+        <v>0.3161171999727407</v>
+      </c>
+      <c r="AA17" t="n">
         <v>0.4013712370627894</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.3161171999727407</v>
       </c>
     </row>
     <row r="18">
@@ -1931,10 +1931,10 @@
         <v>0.3606737729832072</v>
       </c>
       <c r="Z18" t="n">
+        <v>0.9007021063189569</v>
+      </c>
+      <c r="AA18" t="n">
         <v>0.8975927783350049</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.9007021063189569</v>
       </c>
     </row>
     <row r="19">
@@ -2016,10 +2016,10 @@
         <v>0.6783115045819693</v>
       </c>
       <c r="Z19" t="n">
+        <v>0.995987963891675</v>
+      </c>
+      <c r="AA19" t="n">
         <v>0.9946506185222335</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.995987963891675</v>
       </c>
     </row>
     <row r="20">
@@ -2101,10 +2101,10 @@
         <v>0.009654559268801278</v>
       </c>
       <c r="Z20" t="n">
+        <v>0.06596709425391827</v>
+      </c>
+      <c r="AA20" t="n">
         <v>0.04620745118237596</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.06596709425391827</v>
       </c>
     </row>
     <row r="21">
@@ -2186,10 +2186,10 @@
         <v>0.01979442433142667</v>
       </c>
       <c r="Z21" t="n">
+        <v>0.3585084545943069</v>
+      </c>
+      <c r="AA21" t="n">
         <v>0.3091099858805599</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.3585084545943069</v>
       </c>
     </row>
     <row r="22">
@@ -2271,10 +2271,10 @@
         <v>0.02985745352493187</v>
       </c>
       <c r="Z22" t="n">
+        <v>0.08098894058162567</v>
+      </c>
+      <c r="AA22" t="n">
         <v>0.2537073113561774</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.08098894058162567</v>
       </c>
     </row>
     <row r="23">
@@ -2356,10 +2356,10 @@
         <v>0.009125460760132157</v>
       </c>
       <c r="Z23" t="n">
+        <v>0.1739429979680737</v>
+      </c>
+      <c r="AA23" t="n">
         <v>0.1491870638833542</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.1739429979680737</v>
       </c>
     </row>
     <row r="24">
@@ -2441,10 +2441,10 @@
         <v>0.007426228877037484</v>
       </c>
       <c r="Z24" t="n">
+        <v>0.6295424735745699</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.4810461602296786</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.6295424735745699</v>
       </c>
     </row>
     <row r="25">
@@ -2526,10 +2526,10 @@
         <v>0.8469805121423075</v>
       </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>0.9986626546305583</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9986626546305583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2781,10 +2781,10 @@
         <v>0.02960398393820522</v>
       </c>
       <c r="Z28" t="n">
+        <v>0.7753324186122581</v>
+      </c>
+      <c r="AA28" t="n">
         <v>0.7507920742612434</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.7753324186122581</v>
       </c>
     </row>
     <row r="29">
@@ -2866,10 +2866,10 @@
         <v>0.08123300931367383</v>
       </c>
       <c r="Z29" t="n">
+        <v>0.3735697737011764</v>
+      </c>
+      <c r="AA29" t="n">
         <v>0.4982878074063394</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.3735697737011764</v>
       </c>
     </row>
     <row r="30">
@@ -3121,10 +3121,10 @@
         <v>0.096967565885423</v>
       </c>
       <c r="Z32" t="n">
+        <v>0.6191113021604495</v>
+      </c>
+      <c r="AA32" t="n">
         <v>0.7091264534343772</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0.6191113021604495</v>
       </c>
     </row>
     <row r="33">
@@ -3206,10 +3206,10 @@
         <v>0.03498878152491112</v>
       </c>
       <c r="Z33" t="n">
+        <v>0.564793587110538</v>
+      </c>
+      <c r="AA33" t="n">
         <v>0.6231354410624419</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0.564793587110538</v>
       </c>
     </row>
     <row r="34">
@@ -3376,10 +3376,10 @@
         <v>0.08784505319023178</v>
       </c>
       <c r="Z35" t="n">
+        <v>0.5046345385362436</v>
+      </c>
+      <c r="AA35" t="n">
         <v>0.5537365949388782</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0.5046345385362436</v>
       </c>
     </row>
     <row r="36">
@@ -3461,10 +3461,10 @@
         <v>0.7772438859983376</v>
       </c>
       <c r="Z36" t="n">
+        <v>0.995987963891675</v>
+      </c>
+      <c r="AA36" t="n">
         <v>0.9986626546305583</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0.995987963891675</v>
       </c>
     </row>
     <row r="37">
@@ -3546,10 +3546,10 @@
         <v>0.8067461852300057</v>
       </c>
       <c r="Z37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="n">
         <v>0.9986626546305584</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3631,10 +3631,10 @@
         <v>0.551313531869022</v>
       </c>
       <c r="Z38" t="n">
+        <v>0.9615513206285523</v>
+      </c>
+      <c r="AA38" t="n">
         <v>0.9735874289535272</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.9615513206285523</v>
       </c>
     </row>
     <row r="39">
@@ -3716,10 +3716,10 @@
         <v>0.7109667114459385</v>
       </c>
       <c r="Z39" t="n">
+        <v>0.9866265463055833</v>
+      </c>
+      <c r="AA39" t="n">
         <v>0.9919759277833501</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0.9866265463055833</v>
       </c>
     </row>
     <row r="40">
@@ -3886,10 +3886,10 @@
         <v>0.8324518195666728</v>
       </c>
       <c r="Z41" t="n">
+        <v>0.9986626546305583</v>
+      </c>
+      <c r="AA41" t="n">
         <v>0.9973253092611166</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0.9986626546305583</v>
       </c>
     </row>
     <row r="42">
@@ -3971,10 +3971,10 @@
         <v>0.7780898243854504</v>
       </c>
       <c r="Z42" t="n">
+        <v>0.9946506185222334</v>
+      </c>
+      <c r="AA42" t="n">
         <v>0.9879638916750251</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0.9946506185222334</v>
       </c>
     </row>
     <row r="43">
@@ -4054,10 +4054,10 @@
         <v>0.860436629641775</v>
       </c>
       <c r="Z43" t="n">
+        <v>0.9946506185222334</v>
+      </c>
+      <c r="AA43" t="n">
         <v>0.9933132731527916</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.9946506185222334</v>
       </c>
     </row>
     <row r="44">
@@ -4139,10 +4139,10 @@
         <v>0.3189440828794315</v>
       </c>
       <c r="Z44" t="n">
+        <v>0.9799398194583752</v>
+      </c>
+      <c r="AA44" t="n">
         <v>0.9919759277833501</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0.9799398194583752</v>
       </c>
     </row>
     <row r="45">
@@ -4224,10 +4224,10 @@
         <v>0.6013319288411012</v>
       </c>
       <c r="Z45" t="n">
+        <v>0.9946506185222334</v>
+      </c>
+      <c r="AA45" t="n">
         <v>0.9986626546305583</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0.9946506185222334</v>
       </c>
     </row>
     <row r="46">
@@ -4479,10 +4479,10 @@
         <v>0.2117178555612327</v>
       </c>
       <c r="Z48" t="n">
+        <v>0.5328738628505576</v>
+      </c>
+      <c r="AA48" t="n">
         <v>0.7017890974510833</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0.5328738628505576</v>
       </c>
     </row>
     <row r="49">
@@ -4564,10 +4564,10 @@
         <v>0.1324934909347301</v>
       </c>
       <c r="Z49" t="n">
+        <v>0.2594625928964929</v>
+      </c>
+      <c r="AA49" t="n">
         <v>0.6492966311974625</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0.2594625928964929</v>
       </c>
     </row>
   </sheetData>
